--- a/excel tracker sheets/PIPO flags_QAQC 2024-03-18 .xlsx
+++ b/excel tracker sheets/PIPO flags_QAQC 2024-03-18 .xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/edeegan_nps_gov/Documents/FFIqaqc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://doimspp-my.sharepoint.com/personal/edeegan_nps_gov/Documents/FFIqaqc/excel tracker sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2070" documentId="11_2F60EF7EEBC1C4B5DB622485458E26809936517A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C44E2AA1-C7A0-46CC-B86D-822BAEC74132}"/>
   <bookViews>
-    <workbookView xWindow="22710" yWindow="-15870" windowWidth="25440" windowHeight="15390" firstSheet="7" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22710" yWindow="-15870" windowWidth="25440" windowHeight="15390" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PIPO-01" sheetId="1" r:id="rId1"/>
@@ -10742,7 +10742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B93" sqref="B93:E93"/>
     </sheetView>
   </sheetViews>
@@ -21291,8 +21291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35567,7 +35567,7 @@
   <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:E19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
